--- a/biology/Zoologie/Cynomops_milleri/Cynomops_milleri.xlsx
+++ b/biology/Zoologie/Cynomops_milleri/Cynomops_milleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynomope de Miller
-Cynomops milleri, qui a pour nom commun Cynomope de Miller[2], est une espèce sud-américaine de chauves-souris de la famille des Molossidae.
+Cynomops milleri, qui a pour nom commun Cynomope de Miller, est une espèce sud-américaine de chauves-souris de la famille des Molossidae.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynomops milleri est un membre plus petit de son genre. Sur la base de 6 mâles et 17 femelles, les mâles ont une masse moyenne de 0,653 onces (18,512238600625 g) et les femelles ont une masse moyenne de 14,29 onces (405,11468545625 g). Les mâles et les femelles ont des longueurs d'avant-bras moyennes de 1,385 pouces (35,179 mm) et 1,374 pouces (34,8996 mm) respectivement.
-La coloration de la fourrure de son dos varie du brun chocolat foncé au brun rougeâtre clair[3].
+La coloration de la fourrure de son dos varie du brun chocolat foncé au brun rougeâtre clair.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynomops milleri se trouve dans le nord et l'est de l'Amérique du Sud. On le recense au Venezuela[4], en Guyane, au Guyana, au Suriname, au Brésil et au Pérou.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynomops milleri se trouve dans le nord et l'est de l'Amérique du Sud. On le recense au Venezuela, en Guyane, au Guyana, au Suriname, au Brésil et au Pérou.
 Elle vit dans les forêts tropicales décidues et sempervirentes jusqu'à 1 500 mètres d'altitude.
 </t>
         </is>
@@ -576,10 +592,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynomops milleri est décrit comme une nouvelle espèce en 1914 par le zoologiste américain Wilfred Hudson Osgood. Osgood le place initialement dans le genre Molossops, avec un nom scientifique de Molossops milleri. L'holotype fut collecté par Malcolm Playfair Anderson près de Yurimaguas, au Pérou. Osgood note que l'éponyme du nom d'espèce milleri est son collègue zoologiste Gerrit Smith Miller, Jr.
-Le genre Cynomops est établi en 1920 avec Cynomops milleri. En 1978, Koopman la considère comme une sous-espèce de Cynomops planirostris. En 1998, Simmons et Ross publient qu'elle est un synonyme de Cynomops paranus[5]. Plus récemment, elle est considérée comme une espèce à part entière[3].
+Le genre Cynomops est établi en 1920 avec Cynomops milleri. En 1978, Koopman la considère comme une sous-espèce de Cynomops planirostris. En 1998, Simmons et Ross publient qu'elle est un synonyme de Cynomops paranus. Plus récemment, elle est considérée comme une espèce à part entière.
 </t>
         </is>
       </c>
@@ -610,8 +628,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Le genre Cynomops est insectivore. Elle se nourrit pendant des vols rapides[3].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cynomops est insectivore. Elle se nourrit pendant des vols rapides.
 </t>
         </is>
       </c>
